--- a/src/main/resources/図形テキスト設定テンプレート.xlsx
+++ b/src/main/resources/図形テキスト設定テンプレート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shingo/develop/sandbox/etc/poi-sample/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0E49A12D-41C8-5F43-9F0C-9C5D6FF83AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5894CB0B-36A6-C745-9F07-964AE149B55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{1174ADAD-CBCB-4249-859E-09A3A93CC142}"/>
   </bookViews>
@@ -16,17 +16,6 @@
     <sheet name="テスト" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -79,11 +68,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -113,8 +99,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -132,7 +118,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="825500" y="533400"/>
-          <a:ext cx="2501900" cy="1219200"/>
+          <a:ext cx="3302000" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -550,7 +536,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
